--- a/3/images/taping_qc.pdf.xlsx
+++ b/3/images/taping_qc.pdf.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eff8a4eb4a04372/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F9B19B6F-C9FB-453E-ACFC-7B6E1DC81E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A694F3F-1621-4595-932D-9EA9919CEBB1}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{F9B19B6F-C9FB-453E-ACFC-7B6E1DC81E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE07039D-5457-451D-A9A2-E99348585F62}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="2145" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="60" windowWidth="28800" windowHeight="19035" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="QC" sheetId="2" r:id="rId2"/>
+    <sheet name="문제점" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
   <si>
     <t>Motion controller</t>
   </si>
@@ -372,12 +384,104 @@
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>문제점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점 분석 및 개선내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC 시리얼 통신포트 D-SUB 커넥터 핀맵수정
+수정전 : 1(RX), 2(TX), 5(SG)
+수정후 : 2(RX), 3(TX), 5(SG)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 포트 핀맵 오류가능성 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC &lt;-&gt; 터치모니터
+232 시리얼통신 오류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서보드라이버 사이즈로인해 외함깊이가 깊어짐
+-&gt; 제품 사이즈 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서보드라이버 취부 자리를 속판 두께만큼
+컷팅하면 외함 사이즈 유지가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속판의 서보드라이버 취부 자리를 컷팅하고
+외함뒷면에 직결하여 외함 사이즈 유지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC1 ON시 MC 코일접점 채터링현상 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사내 새제품으로 교환하여 MC ON
+정상동작 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사내 노후화된 재고품목 릴레이를 이용하여 
+문제가 되는것으로 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉬원던 점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* I/O 제어의 부재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 제품 설계시 컨셉의 아쉬움 (서서 일하는방식 vs 앉아서 일하는방식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 제품 단가설정 실패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -433,13 +537,35 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="21">
@@ -710,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,9 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,18 +876,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,9 +892,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
@@ -789,37 +900,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
@@ -828,37 +918,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1212,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1053,7 +1221,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1121,6 +1289,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1653,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623729FE-F882-4743-9551-0343D45E46D6}">
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -1665,131 +1837,131 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="23"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="18" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="14" t="s">
         <v>62</v>
       </c>
       <c r="M8" s="44" t="s">
@@ -1798,493 +1970,455 @@
       <c r="N8" s="45"/>
     </row>
     <row r="9" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="16" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="23"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25">
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="16" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="23"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25">
+      <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="16" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="49" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="23"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25">
+      <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="16" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="49" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="23"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25">
+      <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="16" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="23"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25">
+      <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="16" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="23"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25">
+      <c r="B15" s="20">
         <v>7</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="16" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="23"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <v>8</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="16" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="23"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25">
+      <c r="B17" s="20">
         <v>9</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="16" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25">
+      <c r="B18" s="20">
         <v>10</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="16" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="23"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
+      <c r="B19" s="20">
         <v>11</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="23"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25">
+      <c r="B20" s="20">
         <v>12</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="23"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+      <c r="B21" s="20">
         <v>13</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="23"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25">
+      <c r="B22" s="20">
         <v>14</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25">
+      <c r="B23" s="20">
         <v>15</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="23"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="27"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="12" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="23"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="12" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="N26" s="23"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="12" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="N27" s="23"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="12" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="23"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="12" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N29" s="23"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="31"/>
+      <c r="N30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B25:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="E7:H7"/>
@@ -2293,9 +2427,189 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="E2:L6"/>
     <mergeCell ref="M5:M7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B25:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="L24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389F55BE-2389-4C6A-ADD8-7A46DE6F6844}">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="6" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>